--- a/src/predicciones/holt_winters/producto_47.xlsx
+++ b/src/predicciones/holt_winters/producto_47.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,594 +404,594 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44935</v>
       </c>
       <c r="B2">
-        <v>1.994475594250005</v>
+        <v>1.372501180139805</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44953</v>
       </c>
       <c r="B3">
-        <v>1.784584503935343</v>
+        <v>1.037688273011353</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44961</v>
       </c>
       <c r="B4">
-        <v>1.421253494095625</v>
+        <v>1.023358423313083</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44963</v>
       </c>
       <c r="B5">
-        <v>1.027047740460893</v>
+        <v>1.135400032945325</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44969</v>
       </c>
       <c r="B6">
-        <v>1.218606717967037</v>
+        <v>1.015197107359578</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44978</v>
       </c>
       <c r="B7">
-        <v>1.579357086064126</v>
+        <v>1.148906828781549</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>45001</v>
       </c>
       <c r="B8">
-        <v>1.220159291697622</v>
+        <v>1.082175362377692</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>45008</v>
       </c>
       <c r="B9">
-        <v>1.95410862256316</v>
+        <v>1.372408757676335</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>45012</v>
       </c>
       <c r="B10">
-        <v>1.744217532248497</v>
+        <v>1.037595850547883</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>45015</v>
       </c>
       <c r="B11">
-        <v>1.38088652240878</v>
+        <v>1.023266000849613</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>45021</v>
       </c>
       <c r="B12">
-        <v>0.9866807687740484</v>
+        <v>1.135307610481855</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>45042</v>
       </c>
       <c r="B13">
-        <v>1.178239746280192</v>
+        <v>1.015104684896108</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>45045</v>
       </c>
       <c r="B14">
-        <v>1.538990114377281</v>
+        <v>1.148814406318079</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>45046</v>
       </c>
       <c r="B15">
-        <v>1.179792320010776</v>
+        <v>1.082082939914222</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>45052</v>
       </c>
       <c r="B16">
-        <v>1.913741650876315</v>
+        <v>1.372316335212865</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>45057</v>
       </c>
       <c r="B17">
-        <v>1.703850560561652</v>
+        <v>1.037503428084414</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45060</v>
       </c>
       <c r="B18">
-        <v>1.340519550721935</v>
+        <v>1.023173578386143</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45066</v>
       </c>
       <c r="B19">
-        <v>0.9463137970872033</v>
+        <v>1.135215188018385</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45073</v>
       </c>
       <c r="B20">
-        <v>1.137872774593347</v>
+        <v>1.015012262432638</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45085</v>
       </c>
       <c r="B21">
-        <v>1.498623142690436</v>
+        <v>1.148721983854609</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45088</v>
       </c>
       <c r="B22">
-        <v>1.139425348323931</v>
+        <v>1.081990517450752</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45092</v>
       </c>
       <c r="B23">
-        <v>1.873374679189471</v>
+        <v>1.372223912749395</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45110</v>
       </c>
       <c r="B24">
-        <v>1.663483588874807</v>
+        <v>1.037411005620944</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45111</v>
       </c>
       <c r="B25">
-        <v>1.30015257903509</v>
+        <v>1.023081155922673</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45115</v>
       </c>
       <c r="B26">
-        <v>0.9059468254003582</v>
+        <v>1.135122765554915</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45117</v>
       </c>
       <c r="B27">
-        <v>1.097505802906502</v>
+        <v>1.014919839969168</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45124</v>
       </c>
       <c r="B28">
-        <v>1.458256171003591</v>
+        <v>1.148629561391139</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45129</v>
       </c>
       <c r="B29">
-        <v>1.099058376637086</v>
+        <v>1.081898094987283</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45138</v>
       </c>
       <c r="B30">
-        <v>1.833007707502625</v>
+        <v>1.372131490285925</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45151</v>
       </c>
       <c r="B31">
-        <v>1.623116617187963</v>
+        <v>1.037318583157474</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45152</v>
       </c>
       <c r="B32">
-        <v>1.259785607348245</v>
+        <v>1.022988733459203</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45154</v>
       </c>
       <c r="B33">
-        <v>0.8655798537135133</v>
+        <v>1.135030343091445</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45160</v>
       </c>
       <c r="B34">
-        <v>1.057138831219657</v>
+        <v>1.014827417505698</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45184</v>
       </c>
       <c r="B35">
-        <v>1.417889199316746</v>
+        <v>1.148537138927669</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45193</v>
       </c>
       <c r="B36">
-        <v>1.058691404950242</v>
+        <v>1.081805672523813</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45194</v>
       </c>
       <c r="B37">
-        <v>1.79264073581578</v>
+        <v>1.372039067822455</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45204</v>
       </c>
       <c r="B38">
-        <v>1.582749645501117</v>
+        <v>1.037226160694004</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45214</v>
       </c>
       <c r="B39">
-        <v>1.2194186356614</v>
+        <v>1.022896310995733</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45218</v>
       </c>
       <c r="B40">
-        <v>0.8252128820266684</v>
+        <v>1.134937920627975</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45225</v>
       </c>
       <c r="B41">
-        <v>1.016771859532812</v>
+        <v>1.014734995042228</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45240</v>
       </c>
       <c r="B42">
-        <v>1.377522227629901</v>
+        <v>1.148444716464199</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45249</v>
       </c>
       <c r="B43">
-        <v>1.018324433263397</v>
+        <v>1.081713250060343</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45251</v>
       </c>
       <c r="B44">
-        <v>1.752273764128935</v>
+        <v>1.371946645358985</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45254</v>
       </c>
       <c r="B45">
-        <v>1.542382673814272</v>
+        <v>1.037133738230534</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45261</v>
       </c>
       <c r="B46">
-        <v>1.179051663974555</v>
+        <v>1.022803888532263</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45265</v>
       </c>
       <c r="B47">
-        <v>0.7848459103398233</v>
+        <v>1.134845498164505</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45274</v>
       </c>
       <c r="B48">
-        <v>0.9764048878459674</v>
+        <v>1.014642572578758</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45286</v>
       </c>
       <c r="B49">
-        <v>1.337155255943056</v>
+        <v>1.148352294000729</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45300</v>
       </c>
       <c r="B50">
-        <v>0.9779574615765514</v>
+        <v>1.081620827596873</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45305</v>
       </c>
       <c r="B51">
-        <v>1.711906792442091</v>
+        <v>1.371854222895515</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45307</v>
       </c>
       <c r="B52">
-        <v>1.502015702127427</v>
+        <v>1.037041315767064</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45310</v>
       </c>
       <c r="B53">
-        <v>1.13868469228771</v>
+        <v>1.022711466068794</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45313</v>
       </c>
       <c r="B54">
-        <v>0.7444789386529782</v>
+        <v>1.134753075701035</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45318</v>
       </c>
       <c r="B55">
-        <v>0.9360379161591222</v>
+        <v>1.014550150115288</v>
       </c>
       <c r="C55">
         <v>2</v>
